--- a/course_schedule.xlsx
+++ b/course_schedule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="138">
   <si>
     <t>Monday</t>
   </si>
@@ -38,63 +38,69 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>Course 5</t>
+  </si>
+  <si>
+    <t>Course 2</t>
+  </si>
+  <si>
+    <t>Course 3</t>
+  </si>
+  <si>
+    <t>Course 4</t>
+  </si>
+  <si>
+    <t>Course 6</t>
+  </si>
+  <si>
+    <t>Course 7</t>
+  </si>
+  <si>
+    <t>Course 8</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>Course 9</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
     <t>8:00:00</t>
   </si>
   <si>
     <t>9:00:00</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>Course 3</t>
-  </si>
-  <si>
-    <t>Course 4</t>
-  </si>
-  <si>
-    <t>Course 5</t>
-  </si>
-  <si>
-    <t>Course 6</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>Course 8</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>Course 2</t>
-  </si>
-  <si>
-    <t>Course 7</t>
-  </si>
-  <si>
-    <t>Course 9</t>
-  </si>
-  <si>
     <t>Course 1</t>
   </si>
   <si>
+    <t>Course 10</t>
+  </si>
+  <si>
     <t>Course Name</t>
   </si>
   <si>
@@ -170,238 +176,259 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>Course 10</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x793c8e3309d0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x793c8e3309d0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x793c8e3309d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x793c8e330e90&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x793c8e330e90&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x793c8e330e90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331350&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331350&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331350&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331890&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331890&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331890&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331d90&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331d90&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x793c8e331d90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x793c8e332250&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x793c8e332250&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x793c8e332250&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x793c8e332710&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x793c8e332710&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x793c8e332bd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[5, 2, 3, 1]</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4350&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4350&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4350&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4850&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4850&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4850&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4d90&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4d90&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4d90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5810&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5810&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5810&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5d10&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5d10&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5d10&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6210&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6210&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6210&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6710&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6710&gt;]}]]</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}</t>
+  </si>
+  <si>
+    <t>[3, 2]</t>
+  </si>
+  <si>
+    <t>[5, 4, 3, 2]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5, 4, 1, 2]</t>
+  </si>
+  <si>
+    <t>[2, 5, 1, 4, 3]</t>
+  </si>
+  <si>
+    <t>[4, 5, 1, 3]</t>
+  </si>
+  <si>
+    <t>[3, 4, 1, 2]</t>
+  </si>
+  <si>
+    <t>[5, 2, 4, 1, 3]</t>
+  </si>
+  <si>
+    <t>[2, 1, 4, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 3, 2, 5]</t>
+  </si>
+  <si>
+    <t>[5, 3]</t>
   </si>
   <si>
     <t>[3, 5, 4]</t>
   </si>
   <si>
-    <t>[1, 2, 5]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 3, 2]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[5, 4]</t>
+    <t>[2, 5, 4, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 1, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[1, 3, 2]</t>
+  </si>
+  <si>
+    <t>[4, 1, 2]</t>
+  </si>
+  <si>
+    <t>[5, 4, 1]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[5, 1, 4, 3, 2]</t>
+  </si>
+  <si>
+    <t>[5, 4, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>[5, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 1, 5, 3, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 1, 5]</t>
+  </si>
+  <si>
+    <t>[2, 5, 1]</t>
+  </si>
+  <si>
+    <t>[2, 5]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1, 5, 2]</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>[1, 3, 2, 5]</t>
+  </si>
+  <si>
+    <t>[5, 2, 3]</t>
+  </si>
+  <si>
+    <t>[1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 4, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>[3, 4]</t>
+  </si>
+  <si>
+    <t>[1, 5]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4, 5, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5]</t>
+  </si>
+  <si>
+    <t>[1, 5, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 1]</t>
+  </si>
+  <si>
+    <t>[2, 4, 3, 5, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 2]</t>
+  </si>
+  <si>
+    <t>[1, 4, 5]</t>
+  </si>
+  <si>
+    <t>[5, 2, 4, 3, 1]</t>
+  </si>
+  <si>
+    <t>[5, 3, 2, 4]</t>
   </si>
   <si>
     <t>[1, 3, 5]</t>
   </si>
   <si>
-    <t>[1, 5, 3]</t>
+    <t>[3, 1, 4, 5, 2]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 4]</t>
+  </si>
+  <si>
+    <t>[3, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5]</t>
+  </si>
+  <si>
+    <t>[5, 3, 1, 2, 4]</t>
+  </si>
+  <si>
+    <t>[1, 4]</t>
   </si>
   <si>
     <t>[2, 3, 5]</t>
   </si>
   <si>
-    <t>[1, 4]</t>
-  </si>
-  <si>
-    <t>[5, 3, 2, 1, 4]</t>
-  </si>
-  <si>
-    <t>[4, 1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[5, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 5, 3, 1]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4, 2]</t>
-  </si>
-  <si>
-    <t>[4, 5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 5, 2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 2, 1]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-  </si>
-  <si>
-    <t>[2, 3, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 4, 3]</t>
-  </si>
-  <si>
-    <t>[2, 5]</t>
-  </si>
-  <si>
-    <t>[2, 4, 3, 5]</t>
-  </si>
-  <si>
-    <t>[5, 1, 2, 4]</t>
-  </si>
-  <si>
-    <t>[3, 2, 4]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[2, 1, 4]</t>
-  </si>
-  <si>
-    <t>[1, 4, 2, 5, 3]</t>
-  </si>
-  <si>
-    <t>[1, 4, 5]</t>
-  </si>
-  <si>
-    <t>[2, 3, 1, 4]</t>
-  </si>
-  <si>
-    <t>[1, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5]</t>
-  </si>
-  <si>
-    <t>[5, 2, 3]</t>
-  </si>
-  <si>
-    <t>[1, 4, 3]</t>
-  </si>
-  <si>
-    <t>[4, 5, 1, 2]</t>
-  </si>
-  <si>
-    <t>[2, 1]</t>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[3, 4, 2, 1]</t>
+  </si>
+  <si>
+    <t>[5, 4, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>[2, 5, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[3, 5, 1, 4]</t>
   </si>
   <si>
     <t>[4, 5, 2, 1, 3]</t>
   </si>
   <si>
-    <t>[5, 1, 3, 2]</t>
+    <t>[2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[5, 1]</t>
+  </si>
+  <si>
+    <t>[4, 1, 5]</t>
+  </si>
+  <si>
+    <t>[3, 1, 5]</t>
+  </si>
+  <si>
+    <t>[4, 2, 3, 5, 1]</t>
+  </si>
+  <si>
+    <t>[5, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 5, 3]</t>
   </si>
   <si>
     <t>[4, 5, 1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[4, 1, 2]</t>
-  </si>
-  <si>
-    <t>[1, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1]</t>
-  </si>
-  <si>
-    <t>[3, 2, 5]</t>
-  </si>
-  <si>
-    <t>[3, 2, 5, 4, 1]</t>
-  </si>
-  <si>
-    <t>[1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[1, 3, 2]</t>
-  </si>
-  <si>
-    <t>[5, 2, 4]</t>
-  </si>
-  <si>
-    <t>[3, 1, 5]</t>
-  </si>
-  <si>
-    <t>[2, 4, 3]</t>
-  </si>
-  <si>
-    <t>[2, 1, 3, 5, 4]</t>
-  </si>
-  <si>
-    <t>[4, 2, 5, 3, 1]</t>
-  </si>
-  <si>
-    <t>[1, 4, 3, 5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 1, 3, 4]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 3]</t>
-  </si>
-  <si>
-    <t>[1, 3]</t>
-  </si>
-  <si>
-    <t>[4, 2, 1, 5]</t>
-  </si>
-  <si>
-    <t>[5, 3]</t>
-  </si>
-  <si>
-    <t>[1, 4, 5, 3]</t>
-  </si>
-  <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>[4, 2, 1, 5, 3]</t>
-  </si>
-  <si>
-    <t>[5, 2, 1, 3, 4]</t>
-  </si>
-  <si>
-    <t>[3, 2, 5, 1]</t>
-  </si>
-  <si>
-    <t>[4, 5, 3]</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -796,16 +823,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -816,13 +843,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -836,13 +863,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -856,13 +883,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -873,19 +900,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -893,19 +920,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -913,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -933,19 +960,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -953,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -973,19 +1000,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1026,16 +1053,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1046,13 +1073,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1063,19 +1090,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1086,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1103,19 +1130,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1123,19 +1150,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1143,19 +1170,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1163,19 +1190,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1183,19 +1210,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1203,19 +1230,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1256,16 +1283,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1276,13 +1303,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1293,19 +1320,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1313,19 +1340,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1333,19 +1360,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1353,19 +1380,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1373,19 +1400,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1393,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,19 +1440,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,19 +1460,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1483,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1503,19 +1530,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1523,19 +1550,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1543,19 +1570,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1563,19 +1590,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1583,19 +1610,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1603,19 +1630,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1623,19 +1650,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1643,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1663,19 +1690,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1733,19 +1760,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1753,19 +1780,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1773,19 +1800,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1793,19 +1820,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1813,19 +1840,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1833,19 +1860,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1853,19 +1880,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1873,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1893,19 +1920,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1943,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1963,19 +1990,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1983,19 +2010,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2003,19 +2030,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2023,19 +2050,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2073,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2093,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2113,19 +2140,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2133,19 +2160,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2153,19 +2180,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2183,232 +2210,232 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="T2" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2">
-        <v>10</v>
+        <v>136</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3">
-        <v>8</v>
+        <v>136</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2417,7 +2444,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2429,137 +2456,137 @@
         <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="T4" t="s">
-        <v>127</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5">
-        <v>8</v>
+        <v>136</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2568,60 +2595,60 @@
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" t="s">
-        <v>119</v>
-      </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
+        <v>136</v>
+      </c>
+      <c r="U6" t="s">
+        <v>51</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2630,10 +2657,10 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
@@ -2642,69 +2669,69 @@
         <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="T7" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
@@ -2713,57 +2740,57 @@
         <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" t="s">
-        <v>50</v>
-      </c>
       <c r="T8" t="s">
-        <v>127</v>
-      </c>
-      <c r="U8">
+        <v>136</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
       <c r="W8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2772,140 +2799,140 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="Q9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="T9" t="s">
-        <v>127</v>
-      </c>
-      <c r="U9">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="U9" t="s">
+        <v>51</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
         <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S10" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="U10" t="s">
+        <v>51</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2914,58 +2941,58 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="R11" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11">
-        <v>12</v>
+        <v>136</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/course_schedule.xlsx
+++ b/course_schedule.xlsx
@@ -12,16 +12,21 @@
     <sheet name="Room 3" sheetId="3" r:id="rId3"/>
     <sheet name="Room 4" sheetId="4" r:id="rId4"/>
     <sheet name="Room 5" sheetId="5" r:id="rId5"/>
-    <sheet name="301" sheetId="6" r:id="rId6"/>
-    <sheet name="302" sheetId="7" r:id="rId7"/>
-    <sheet name="Courses" sheetId="8" r:id="rId8"/>
+    <sheet name="Room 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Room 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Room 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Room 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Room 10" sheetId="10" r:id="rId10"/>
+    <sheet name="301" sheetId="11" r:id="rId11"/>
+    <sheet name="302" sheetId="12" r:id="rId12"/>
+    <sheet name="Courses" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="129">
   <si>
     <t>Monday</t>
   </si>
@@ -38,10 +43,49 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>Course 1</t>
+  </si>
+  <si>
+    <t>Course 2</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>Course 6</t>
+  </si>
+  <si>
+    <t>Course 7</t>
+  </si>
+  <si>
     <t>Course 5</t>
   </si>
   <si>
-    <t>Course 2</t>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>Course 8</t>
+  </si>
+  <si>
+    <t>Course 9</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
   </si>
   <si>
     <t>Course 3</t>
@@ -50,57 +94,18 @@
     <t>Course 4</t>
   </si>
   <si>
-    <t>Course 6</t>
-  </si>
-  <si>
-    <t>Course 7</t>
-  </si>
-  <si>
-    <t>Course 8</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>Course 9</t>
+    <t>Course 10</t>
+  </si>
+  <si>
+    <t>8:00:00</t>
   </si>
   <si>
     <t>10:00:00</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>8:00:00</t>
-  </si>
-  <si>
     <t>9:00:00</t>
   </si>
   <si>
-    <t>Course 1</t>
-  </si>
-  <si>
-    <t>Course 10</t>
-  </si>
-  <si>
     <t>Course Name</t>
   </si>
   <si>
@@ -176,259 +181,232 @@
     <t>Tut Rooms</t>
   </si>
   <si>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419310&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419310&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419310&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419dd0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419dd0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419dd0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a290&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a290&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a290&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a7d0&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a7d0&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a7d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x759fd241acd0&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x759fd241acd0&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x759fd241acd0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b1d0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b1d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}]]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4350&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4350&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4350&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4850&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4850&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4850&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4d90&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4d90&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d4d90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5810&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5810&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5810&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5d10&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5d10&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d5d10&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6210&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6210&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6210&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6710&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d6710&gt;]}]]</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c5dde1d52d0&gt;]}</t>
-  </si>
-  <si>
-    <t>[3, 2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 3, 2]</t>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;, &lt;classes.Course object at 0x759fd2419dd0&gt;, &lt;classes.Course object at 0x759fd241a290&gt;, &lt;classes.Course object at 0x759fd241acd0&gt;, &lt;classes.Course object at 0x759fd241b6d0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b1d0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x759fd241bb90&gt;]}</t>
+  </si>
+  <si>
+    <t>[5, 3]</t>
+  </si>
+  <si>
+    <t>[1, 5]</t>
+  </si>
+  <si>
+    <t>[5, 2, 4]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>[3, 5, 1, 4]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[1, 5, 4, 2]</t>
+  </si>
+  <si>
+    <t>[4, 5, 1, 2]</t>
+  </si>
+  <si>
+    <t>[5, 4, 2, 1]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[1, 5, 4, 3]</t>
   </si>
   <si>
     <t>[5]</t>
   </si>
   <si>
+    <t>[4, 1, 2]</t>
+  </si>
+  <si>
+    <t>[2, 1, 4, 5]</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[5, 2, 1]</t>
+  </si>
+  <si>
+    <t>[5, 4, 1]</t>
+  </si>
+  <si>
+    <t>[4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 1]</t>
+  </si>
+  <si>
+    <t>[3, 5]</t>
+  </si>
+  <si>
+    <t>[3, 1, 5, 2]</t>
+  </si>
+  <si>
     <t>[4]</t>
   </si>
   <si>
-    <t>[5, 4, 1, 2]</t>
+    <t>[5, 2, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5, 3]</t>
+  </si>
+  <si>
+    <t>[4, 5, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>[1, 5, 2]</t>
+  </si>
+  <si>
+    <t>[2, 4, 1, 5]</t>
+  </si>
+  <si>
+    <t>[4, 2, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 4, 1, 5]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 5]</t>
+  </si>
+  <si>
+    <t>[1, 5, 3]</t>
+  </si>
+  <si>
+    <t>[5, 4, 1, 3]</t>
+  </si>
+  <si>
+    <t>[4, 3]</t>
+  </si>
+  <si>
+    <t>[2, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 1, 5, 2]</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 4]</t>
+  </si>
+  <si>
+    <t>[5, 2]</t>
+  </si>
+  <si>
+    <t>[2, 5, 3, 4, 1]</t>
+  </si>
+  <si>
+    <t>[1, 4, 2]</t>
+  </si>
+  <si>
+    <t>[2, 1]</t>
+  </si>
+  <si>
+    <t>[1, 4, 3, 2]</t>
+  </si>
+  <si>
+    <t>[3, 4, 2, 5, 1]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[5, 4]</t>
+  </si>
+  <si>
+    <t>[3, 1]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4, 1]</t>
   </si>
   <si>
     <t>[2, 5, 1, 4, 3]</t>
   </si>
   <si>
-    <t>[4, 5, 1, 3]</t>
-  </si>
-  <si>
-    <t>[3, 4, 1, 2]</t>
-  </si>
-  <si>
-    <t>[5, 2, 4, 1, 3]</t>
-  </si>
-  <si>
-    <t>[2, 1, 4, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 3, 2, 5]</t>
-  </si>
-  <si>
-    <t>[5, 3]</t>
-  </si>
-  <si>
-    <t>[3, 5, 4]</t>
-  </si>
-  <si>
-    <t>[2, 5, 4, 3]</t>
-  </si>
-  <si>
-    <t>[4, 2, 1, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 1]</t>
-  </si>
-  <si>
-    <t>[1, 3, 2]</t>
-  </si>
-  <si>
-    <t>[4, 1, 2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 1]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[5, 1, 4, 3, 2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 2]</t>
-  </si>
-  <si>
-    <t>[4, 2, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>[5, 2]</t>
-  </si>
-  <si>
-    <t>[4, 2]</t>
-  </si>
-  <si>
-    <t>[4, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 1, 5, 3, 2]</t>
-  </si>
-  <si>
-    <t>[4, 2, 1, 5]</t>
-  </si>
-  <si>
-    <t>[2, 5, 1]</t>
-  </si>
-  <si>
-    <t>[2, 5]</t>
-  </si>
-  <si>
-    <t>[4, 3, 1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-  </si>
-  <si>
-    <t>[1, 3, 2, 5]</t>
-  </si>
-  <si>
-    <t>[5, 2, 3]</t>
-  </si>
-  <si>
-    <t>[1, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 4, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>[3, 4]</t>
-  </si>
-  <si>
-    <t>[1, 5]</t>
-  </si>
-  <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4, 5, 2, 1]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5]</t>
-  </si>
-  <si>
-    <t>[1, 5, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 1]</t>
-  </si>
-  <si>
-    <t>[2, 4, 3, 5, 1]</t>
-  </si>
-  <si>
-    <t>[3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[1, 4, 5]</t>
-  </si>
-  <si>
-    <t>[5, 2, 4, 3, 1]</t>
-  </si>
-  <si>
-    <t>[5, 3, 2, 4]</t>
-  </si>
-  <si>
-    <t>[1, 3, 5]</t>
-  </si>
-  <si>
-    <t>[3, 1, 4, 5, 2]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 4]</t>
-  </si>
-  <si>
-    <t>[3, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5]</t>
-  </si>
-  <si>
-    <t>[5, 3, 1, 2, 4]</t>
+    <t>[2, 1, 5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[5, 1, 4, 3]</t>
   </si>
   <si>
     <t>[1, 4]</t>
   </si>
   <si>
-    <t>[2, 3, 5]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[3, 4, 2, 1]</t>
-  </si>
-  <si>
-    <t>[5, 4, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[2, 5, 1, 3, 4]</t>
-  </si>
-  <si>
-    <t>[5, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 5, 3, 4]</t>
-  </si>
-  <si>
-    <t>[3, 5, 1, 4]</t>
-  </si>
-  <si>
-    <t>[4, 5, 2, 1, 3]</t>
-  </si>
-  <si>
-    <t>[2, 4, 1]</t>
-  </si>
-  <si>
-    <t>[5, 1]</t>
-  </si>
-  <si>
-    <t>[4, 1, 5]</t>
-  </si>
-  <si>
-    <t>[3, 1, 5]</t>
-  </si>
-  <si>
-    <t>[4, 2, 3, 5, 1]</t>
-  </si>
-  <si>
-    <t>[5, 2, 1]</t>
-  </si>
-  <si>
-    <t>[2, 1, 5, 3]</t>
-  </si>
-  <si>
-    <t>[4, 5, 1, 2, 3]</t>
+    <t>[1, 2, 5]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[4, 5, 2]</t>
+  </si>
+  <si>
+    <t>[4, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[1, 4, 5, 2, 3]</t>
+  </si>
+  <si>
+    <t>[1, 4, 3, 2, 5]</t>
+  </si>
+  <si>
+    <t>[5, 2, 1, 4]</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -826,13 +804,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -840,19 +818,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -860,19 +838,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -880,19 +858,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -900,19 +878,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -923,13 +901,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -943,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -963,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -983,16 +961,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1013,6 +991,1296 @@
       </c>
       <c r="F11" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>127</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" t="s">
+        <v>127</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +2324,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1070,19 +2338,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1090,19 +2358,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1110,19 +2378,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1130,19 +2398,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1173,13 +2441,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1193,13 +2461,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1210,19 +2478,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1286,13 +2554,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1300,19 +2568,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1320,19 +2588,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1340,19 +2608,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1360,19 +2628,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,19 +2648,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1400,19 +2668,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1420,19 +2688,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1440,19 +2708,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1510,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1530,19 +2798,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1550,19 +2818,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1570,19 +2838,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1590,19 +2858,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,19 +2878,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1630,19 +2898,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1650,19 +2918,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1673,16 +2941,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1740,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1760,19 +3028,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1780,19 +3048,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1800,19 +3068,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1820,19 +3088,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,19 +3108,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1860,19 +3128,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1880,19 +3148,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1903,16 +3171,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1942,7 +3210,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1990,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2010,19 +3278,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2030,19 +3298,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2050,18 +3318,118 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2072,7 +3440,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2120,19 +3488,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2140,19 +3508,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2160,19 +3528,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2180,18 +3548,118 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2202,797 +3670,457 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
-        <v>132</v>
-      </c>
-      <c r="T3" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" t="s">
-        <v>136</v>
-      </c>
-      <c r="U6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" t="s">
-        <v>127</v>
-      </c>
-      <c r="S7" t="s">
-        <v>133</v>
-      </c>
-      <c r="T7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>122</v>
-      </c>
-      <c r="R8" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" t="s">
-        <v>136</v>
-      </c>
-      <c r="U9" t="s">
-        <v>51</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" t="s">
-        <v>130</v>
-      </c>
-      <c r="S10" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" t="s">
-        <v>136</v>
-      </c>
-      <c r="U10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>124</v>
-      </c>
-      <c r="R11" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" t="s">
-        <v>135</v>
-      </c>
-      <c r="T11" t="s">
-        <v>136</v>
-      </c>
-      <c r="U11" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11">
-        <v>4</v>
-      </c>
-      <c r="W11" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/course_schedule.xlsx
+++ b/course_schedule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="138">
   <si>
     <t>Monday</t>
   </si>
@@ -55,27 +55,30 @@
     <t>12:00:00</t>
   </si>
   <si>
+    <t>Course 5</t>
+  </si>
+  <si>
+    <t>Course 6</t>
+  </si>
+  <si>
+    <t>Course 7</t>
+  </si>
+  <si>
+    <t>Course 3</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>Course 9</t>
+  </si>
+  <si>
+    <t>Course 8</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
-    <t>Course 6</t>
-  </si>
-  <si>
-    <t>Course 7</t>
-  </si>
-  <si>
-    <t>Course 5</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>Course 8</t>
-  </si>
-  <si>
-    <t>Course 9</t>
-  </si>
-  <si>
     <t>14:00:00</t>
   </si>
   <si>
@@ -85,10 +88,7 @@
     <t>16:00:00</t>
   </si>
   <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>Course 3</t>
+    <t>8:00:00</t>
   </si>
   <si>
     <t>Course 4</t>
@@ -97,15 +97,12 @@
     <t>Course 10</t>
   </si>
   <si>
-    <t>8:00:00</t>
+    <t>9:00:00</t>
   </si>
   <si>
     <t>10:00:00</t>
   </si>
   <si>
-    <t>9:00:00</t>
-  </si>
-  <si>
     <t>Course Name</t>
   </si>
   <si>
@@ -181,232 +178,262 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419310&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419310&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419310&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419dd0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419dd0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419dd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a290&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a290&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a290&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a7d0&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a7d0&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x759fd241a7d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x759fd241acd0&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x759fd241acd0&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x759fd241acd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b1d0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b1d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b6d0&gt;]}]]</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd91d0&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd91d0&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd91d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9750&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9750&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9750&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9c50&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9c50&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9c50&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda190&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda190&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda190&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda690&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda690&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda690&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdab90&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdab90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}]]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x759fe19295d0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x759fd2419810&gt;, &lt;classes.Course object at 0x759fd2419dd0&gt;, &lt;classes.Course object at 0x759fd241a290&gt;, &lt;classes.Course object at 0x759fd241acd0&gt;, &lt;classes.Course object at 0x759fd241b6d0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x759fd241b1d0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x759fd241bb90&gt;]}</t>
-  </si>
-  <si>
-    <t>[5, 3]</t>
-  </si>
-  <si>
-    <t>[1, 5]</t>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;, &lt;classes.Course object at 0x7b25d2bd91d0&gt;, &lt;classes.Course object at 0x7b25d2bd9750&gt;, &lt;classes.Course object at 0x7b25d2bd9c50&gt;, &lt;classes.Course object at 0x7b25d2bda190&gt;, &lt;classes.Course object at 0x7b25d2bda690&gt;, &lt;classes.Course object at 0x7b25d2bdab90&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb550&gt;]}</t>
+  </si>
+  <si>
+    <t>[5, 2]</t>
+  </si>
+  <si>
+    <t>[5, 4, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 5]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[1, 5, 3, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 5, 1]</t>
+  </si>
+  <si>
+    <t>[2, 4, 3, 5, 1]</t>
+  </si>
+  <si>
+    <t>[4, 5, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 3]</t>
+  </si>
+  <si>
+    <t>[5, 3, 2]</t>
+  </si>
+  <si>
+    <t>[5, 2, 1, 4]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 5, 1, 3]</t>
+  </si>
+  <si>
+    <t>[1, 5, 3]</t>
+  </si>
+  <si>
+    <t>[2, 5, 1, 3]</t>
+  </si>
+  <si>
+    <t>[3, 2, 5, 4]</t>
+  </si>
+  <si>
+    <t>[5, 2, 4, 1, 3]</t>
+  </si>
+  <si>
+    <t>[2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[3, 4]</t>
+  </si>
+  <si>
+    <t>[4, 5, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>[5, 1, 3, 2]</t>
+  </si>
+  <si>
+    <t>[2, 1]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 4, 3, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 2, 1, 4]</t>
+  </si>
+  <si>
+    <t>[1, 4, 3, 5, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1]</t>
+  </si>
+  <si>
+    <t>[5, 1, 2, 4, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 5, 1]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 3]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 2, 1]</t>
+  </si>
+  <si>
+    <t>[5, 4, 2, 1, 3]</t>
+  </si>
+  <si>
+    <t>[3, 5]</t>
+  </si>
+  <si>
+    <t>[3, 4, 1, 2, 5]</t>
+  </si>
+  <si>
+    <t>[1, 4, 5, 2]</t>
+  </si>
+  <si>
+    <t>[2, 5]</t>
+  </si>
+  <si>
+    <t>[5, 3, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 4, 1]</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 2]</t>
+  </si>
+  <si>
+    <t>[2, 5, 4, 1, 3]</t>
   </si>
   <si>
     <t>[5, 2, 4]</t>
   </si>
   <si>
-    <t>[4, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[3, 5, 1, 4]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[1, 5, 4, 2]</t>
-  </si>
-  <si>
-    <t>[4, 5, 1, 2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 2, 1]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[1, 5, 4, 3]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 2]</t>
-  </si>
-  <si>
-    <t>[2, 1, 4, 5]</t>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[5, 2, 1]</t>
-  </si>
-  <si>
-    <t>[5, 4, 1]</t>
-  </si>
-  <si>
-    <t>[4, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5, 1]</t>
-  </si>
-  <si>
-    <t>[3, 5]</t>
-  </si>
-  <si>
-    <t>[3, 1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[5, 2, 1, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5, 3]</t>
-  </si>
-  <si>
-    <t>[4, 5, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 4, 1, 5]</t>
-  </si>
-  <si>
-    <t>[4, 2, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 4, 1, 5]</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 1]</t>
-  </si>
-  <si>
-    <t>[4, 2, 5]</t>
-  </si>
-  <si>
-    <t>[1, 5, 3]</t>
-  </si>
-  <si>
-    <t>[5, 4, 1, 3]</t>
+    <t>[4, 1, 2, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 5, 2]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[4, 2, 3]</t>
+  </si>
+  <si>
+    <t>[5, 1, 4, 2, 3]</t>
+  </si>
+  <si>
+    <t>[2, 4, 1, 3, 5]</t>
+  </si>
+  <si>
+    <t>[2, 5, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[3, 4, 2, 1]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4, 2]</t>
+  </si>
+  <si>
+    <t>[5, 3, 1, 4, 2]</t>
   </si>
   <si>
     <t>[4, 3]</t>
   </si>
   <si>
-    <t>[2, 3, 1]</t>
-  </si>
-  <si>
-    <t>[4, 1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 4]</t>
-  </si>
-  <si>
-    <t>[5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 5, 3, 4, 1]</t>
-  </si>
-  <si>
-    <t>[1, 4, 2]</t>
-  </si>
-  <si>
-    <t>[2, 1]</t>
-  </si>
-  <si>
-    <t>[1, 4, 3, 2]</t>
-  </si>
-  <si>
-    <t>[3, 4, 2, 5, 1]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[5, 4]</t>
-  </si>
-  <si>
-    <t>[3, 1]</t>
-  </si>
-  <si>
-    <t>[5, 3, 4, 1]</t>
-  </si>
-  <si>
-    <t>[2, 5, 1, 4, 3]</t>
-  </si>
-  <si>
-    <t>[2, 1, 5, 3, 4]</t>
-  </si>
-  <si>
-    <t>[2, 4, 1]</t>
-  </si>
-  <si>
-    <t>[5, 1, 4, 3]</t>
-  </si>
-  <si>
-    <t>[1, 4]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5]</t>
-  </si>
-  <si>
-    <t>[2, 4, 5]</t>
-  </si>
-  <si>
-    <t>[4, 5, 2]</t>
-  </si>
-  <si>
-    <t>[4, 3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[1, 4, 5, 2, 3]</t>
-  </si>
-  <si>
-    <t>[1, 4, 3, 2, 5]</t>
-  </si>
-  <si>
-    <t>[5, 2, 1, 4]</t>
+    <t>[4, 3, 2, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 3]</t>
+  </si>
+  <si>
+    <t>[5, 4, 2, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 5, 2, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 4]</t>
+  </si>
+  <si>
+    <t>[5, 2, 3]</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -804,13 +831,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -821,13 +848,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -841,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -861,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -901,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -921,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -941,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -961,16 +988,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1028,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1048,19 +1075,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1128,19 +1155,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1148,19 +1175,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1168,19 +1195,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1191,16 +1218,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1258,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1301,13 +1328,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1321,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1388,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1428,19 +1455,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1451,13 +1478,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1498,79 +1525,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -1581,67 +1608,67 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1652,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1661,69 +1688,69 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1732,58 +1759,58 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" t="s">
         <v>94</v>
-      </c>
-      <c r="N4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
       </c>
       <c r="S4" t="s">
         <v>68</v>
       </c>
       <c r="T4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1794,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1803,129 +1830,129 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="S5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="T5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5">
         <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="T6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1936,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1945,58 +1972,58 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2007,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2016,140 +2043,140 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
         <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="T8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" t="s">
-        <v>120</v>
-      </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2164,52 +2191,52 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" t="s">
-        <v>93</v>
-      </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2220,67 +2247,67 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" t="s">
-        <v>112</v>
-      </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="S11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2324,13 +2351,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2341,13 +2368,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -2361,13 +2388,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2378,19 +2405,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2418,19 +2445,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2441,13 +2468,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2461,13 +2488,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2478,19 +2505,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2548,19 +2575,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2568,19 +2595,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2591,7 +2618,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2651,13 +2678,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2671,13 +2698,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2688,19 +2715,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2708,19 +2735,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2778,19 +2805,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2798,19 +2825,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2821,7 +2848,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2878,19 +2905,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2898,19 +2925,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2918,19 +2945,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2938,19 +2965,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3008,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3028,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3108,19 +3135,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3128,19 +3155,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3148,19 +3175,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3168,19 +3195,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3238,19 +3265,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3258,19 +3285,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3338,19 +3365,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3358,19 +3385,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3378,19 +3405,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3401,16 +3428,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3468,19 +3495,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3488,19 +3515,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3568,19 +3595,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3588,19 +3615,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3608,19 +3635,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3628,19 +3655,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3698,19 +3725,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3718,19 +3745,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3798,19 +3825,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3818,19 +3845,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3838,19 +3865,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3861,16 +3888,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3928,19 +3955,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3948,19 +3975,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4028,19 +4055,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4048,19 +4075,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4068,19 +4095,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4091,16 +4118,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/course_schedule.xlsx
+++ b/course_schedule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
   <si>
     <t>Monday</t>
   </si>
@@ -46,63 +46,63 @@
     <t>Course 1</t>
   </si>
   <si>
+    <t>9:00:00</t>
+  </si>
+  <si>
     <t>Course 2</t>
   </si>
   <si>
     <t>11:00:00</t>
   </si>
   <si>
+    <t>Course 4</t>
+  </si>
+  <si>
+    <t>Course 5</t>
+  </si>
+  <si>
+    <t>Course 6</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>Course 3</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>Course 7</t>
+  </si>
+  <si>
+    <t>Course 9</t>
+  </si>
+  <si>
     <t>12:00:00</t>
   </si>
   <si>
-    <t>Course 5</t>
-  </si>
-  <si>
-    <t>Course 6</t>
-  </si>
-  <si>
-    <t>Course 7</t>
-  </si>
-  <si>
-    <t>Course 3</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>Course 9</t>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
   </si>
   <si>
     <t>Course 8</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
+    <t>8:00:00</t>
   </si>
   <si>
     <t>16:00:00</t>
   </si>
   <si>
-    <t>8:00:00</t>
-  </si>
-  <si>
-    <t>Course 4</t>
+    <t>10:00:00</t>
   </si>
   <si>
     <t>Course 10</t>
   </si>
   <si>
-    <t>9:00:00</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>Course Name</t>
   </si>
   <si>
@@ -178,262 +178,226 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd91d0&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd91d0&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd91d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9750&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9750&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9750&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9c50&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9c50&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd9c50&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda190&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda190&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda190&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda690&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda690&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bda690&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdab90&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdab90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}]]</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x70921d3e9d90&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x70921d3e9d90&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x70921d3e9d90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x709207590210&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x709207590210&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x709207590210&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7092075906d0&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7092075906d0&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7092075906d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x709207590bd0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x709207590bd0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x709207590bd0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x709207591150&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x709207591150&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x709207591150&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x709207591690&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x709207591690&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x709207591690&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x709207591b90&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x709207591b90&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x709207591b90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x709207592090&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x709207592090&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x709207592590&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x709207592590&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x709207592590&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x709207592590&gt;]}]]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7b25e2139150&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bd8cd0&gt;, &lt;classes.Course object at 0x7b25d2bd91d0&gt;, &lt;classes.Course object at 0x7b25d2bd9750&gt;, &lt;classes.Course object at 0x7b25d2bd9c50&gt;, &lt;classes.Course object at 0x7b25d2bda190&gt;, &lt;classes.Course object at 0x7b25d2bda690&gt;, &lt;classes.Course object at 0x7b25d2bdab90&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb090&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7b25d2bdb550&gt;]}</t>
-  </si>
-  <si>
-    <t>[5, 2]</t>
-  </si>
-  <si>
-    <t>[5, 4, 2, 1]</t>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x70921d3e9d90&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x709207590210&gt;, &lt;classes.Course object at 0x7092075906d0&gt;, &lt;classes.Course object at 0x709207590bd0&gt;, &lt;classes.Course object at 0x709207591150&gt;, &lt;classes.Course object at 0x709207591690&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x709207591b90&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x709207592090&gt;, &lt;classes.Course object at 0x709207592590&gt;, &lt;classes.Course object at 0x709207592a50&gt;]}</t>
+  </si>
+  <si>
+    <t>[5, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 5, 1, 3]</t>
+  </si>
+  <si>
+    <t>[2, 5]</t>
+  </si>
+  <si>
+    <t>[3, 1, 4, 5, 2]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1]</t>
+  </si>
+  <si>
+    <t>[5, 2, 4]</t>
+  </si>
+  <si>
+    <t>[5, 2, 1, 4]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[5, 1, 4, 3, 2]</t>
   </si>
   <si>
     <t>[2, 1, 5]</t>
   </si>
   <si>
+    <t>[3, 1, 4, 5]</t>
+  </si>
+  <si>
+    <t>[1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[5, 3]</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 4, 2]</t>
+  </si>
+  <si>
+    <t>[5, 3, 2]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[5, 2, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[1, 4, 3]</t>
+  </si>
+  <si>
+    <t>[5, 1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[3, 2, 5, 4]</t>
+  </si>
+  <si>
+    <t>[3, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[1, 5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4, 1]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 1, 4, 2]</t>
+  </si>
+  <si>
+    <t>[2, 3, 1, 5, 4]</t>
+  </si>
+  <si>
+    <t>[3, 2, 4]</t>
+  </si>
+  <si>
     <t>[2]</t>
   </si>
   <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[1, 3]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[1, 5, 3, 2]</t>
-  </si>
-  <si>
-    <t>[3, 2, 5, 1]</t>
-  </si>
-  <si>
-    <t>[2, 4, 3, 5, 1]</t>
-  </si>
-  <si>
-    <t>[4, 5, 2, 1]</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 3]</t>
-  </si>
-  <si>
-    <t>[5, 3, 2]</t>
-  </si>
-  <si>
-    <t>[5, 2, 1, 4]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 2, 5, 1, 3]</t>
-  </si>
-  <si>
-    <t>[1, 5, 3]</t>
-  </si>
-  <si>
-    <t>[2, 5, 1, 3]</t>
-  </si>
-  <si>
-    <t>[3, 2, 5, 4]</t>
-  </si>
-  <si>
-    <t>[5, 2, 4, 1, 3]</t>
-  </si>
-  <si>
-    <t>[2, 4, 1]</t>
-  </si>
-  <si>
-    <t>[3, 4]</t>
-  </si>
-  <si>
-    <t>[4, 5, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 2, 4, 5]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4]</t>
+    <t>[4, 1, 2]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 1]</t>
+  </si>
+  <si>
+    <t>[1, 3, 2, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 5]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 3]</t>
+  </si>
+  <si>
+    <t>[4, 5, 3]</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[3, 5]</t>
+  </si>
+  <si>
+    <t>[5, 1, 4]</t>
+  </si>
+  <si>
+    <t>[5, 4, 1, 3, 2]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1, 5, 2]</t>
+  </si>
+  <si>
+    <t>[1, 4, 2, 3, 5]</t>
   </si>
   <si>
     <t>[2, 3]</t>
   </si>
   <si>
-    <t>[5, 1, 3, 2]</t>
-  </si>
-  <si>
-    <t>[2, 1]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2, 1, 4, 3, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5, 2, 1, 4]</t>
-  </si>
-  <si>
-    <t>[1, 4, 3, 5, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1]</t>
-  </si>
-  <si>
-    <t>[5, 1, 2, 4, 3]</t>
-  </si>
-  <si>
-    <t>[4, 2, 5, 1]</t>
-  </si>
-  <si>
-    <t>[4, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 3]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5, 2, 1]</t>
-  </si>
-  <si>
-    <t>[5, 4, 2, 1, 3]</t>
-  </si>
-  <si>
-    <t>[3, 5]</t>
-  </si>
-  <si>
-    <t>[3, 4, 1, 2, 5]</t>
-  </si>
-  <si>
-    <t>[1, 4, 5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 5]</t>
-  </si>
-  <si>
-    <t>[5, 3, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5, 4, 1]</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 2]</t>
-  </si>
-  <si>
-    <t>[2, 5, 4, 1, 3]</t>
-  </si>
-  <si>
-    <t>[5, 2, 4]</t>
-  </si>
-  <si>
-    <t>[4, 1, 2, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 5, 2]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[4, 2, 3]</t>
-  </si>
-  <si>
-    <t>[5, 1, 4, 2, 3]</t>
-  </si>
-  <si>
-    <t>[2, 4, 1, 3, 5]</t>
-  </si>
-  <si>
-    <t>[2, 5, 1, 3, 4]</t>
-  </si>
-  <si>
-    <t>[3, 4, 2, 1]</t>
-  </si>
-  <si>
-    <t>[5, 3, 4, 2]</t>
-  </si>
-  <si>
-    <t>[5, 3, 1, 4, 2]</t>
-  </si>
-  <si>
-    <t>[4, 3]</t>
-  </si>
-  <si>
-    <t>[4, 3, 2, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 3]</t>
-  </si>
-  <si>
-    <t>[5, 4, 2, 3, 1]</t>
-  </si>
-  <si>
-    <t>[4, 5, 2, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 4]</t>
-  </si>
-  <si>
-    <t>[5, 2, 3]</t>
+    <t>[2, 5, 3, 1, 4]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[5, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>[1, 3, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 5, 2, 4]</t>
+  </si>
+  <si>
+    <t>[3, 5, 1, 4]</t>
+  </si>
+  <si>
+    <t>[3, 5, 4]</t>
+  </si>
+  <si>
+    <t>[2, 1, 4]</t>
+  </si>
+  <si>
+    <t>[3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5]</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -828,16 +792,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -845,19 +809,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -865,19 +829,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -885,19 +849,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -905,19 +869,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -925,19 +889,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -945,19 +909,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -965,19 +929,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -985,19 +949,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1005,19 +969,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1055,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1075,19 +1039,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1095,19 +1059,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1115,19 +1079,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1135,19 +1099,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1155,19 +1119,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1175,19 +1139,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1195,19 +1159,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1215,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1235,19 +1199,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1285,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1305,19 +1269,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1328,16 +1292,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1348,16 +1312,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1365,19 +1329,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1415,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1435,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1455,19 +1419,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1478,16 +1442,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,19 +1459,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -1626,54 +1590,54 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
         <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" t="s">
         <v>120</v>
       </c>
-      <c r="R2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
       <c r="T2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U2" t="s">
         <v>59</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1682,7 +1646,7 @@
         <v>51</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1697,13 +1661,13 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
         <v>93</v>
@@ -1712,39 +1676,39 @@
         <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="T3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U3" t="s">
         <v>59</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1762,60 +1726,60 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
         <v>107</v>
       </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="T4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U4" t="s">
         <v>59</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1824,7 +1788,7 @@
         <v>53</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1833,7 +1797,7 @@
         <v>61</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>67</v>
@@ -1842,51 +1806,51 @@
         <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" t="s">
         <v>87</v>
       </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>122</v>
-      </c>
       <c r="R5" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="S5" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U5" t="s">
         <v>59</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1904,60 +1868,60 @@
         <v>61</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
         <v>59</v>
       </c>
-      <c r="P6" t="s">
-        <v>69</v>
-      </c>
       <c r="Q6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" t="s">
         <v>59</v>
       </c>
-      <c r="R6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" t="s">
-        <v>133</v>
-      </c>
       <c r="T6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U6" t="s">
         <v>59</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1981,54 +1945,54 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>123</v>
       </c>
-      <c r="R7" t="s">
-        <v>128</v>
-      </c>
-      <c r="S7" t="s">
-        <v>59</v>
-      </c>
       <c r="T7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U7" t="s">
         <v>59</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2037,69 +2001,69 @@
         <v>56</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
         <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="R8" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U8" t="s">
         <v>59</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2108,69 +2072,69 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="R9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" t="s">
         <v>83</v>
       </c>
-      <c r="K9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="T9" t="s">
         <v>124</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" t="s">
-        <v>136</v>
       </c>
       <c r="U9" t="s">
         <v>59</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2179,69 +2143,69 @@
         <v>58</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="R10" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="T10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U10" t="s">
         <v>59</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2250,7 +2214,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2259,55 +2223,55 @@
         <v>63</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" t="s">
-        <v>98</v>
-      </c>
       <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
         <v>105</v>
       </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
         <v>59</v>
       </c>
-      <c r="P11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>67</v>
-      </c>
       <c r="R11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="T11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U11" t="s">
         <v>59</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2348,16 +2312,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2368,13 +2332,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -2385,19 +2349,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2405,19 +2369,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2425,19 +2389,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2445,19 +2409,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2465,19 +2429,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2485,19 +2449,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2505,19 +2469,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2525,19 +2489,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2575,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2595,19 +2559,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2615,19 +2579,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2635,19 +2599,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2655,19 +2619,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2675,19 +2639,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2695,19 +2659,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2715,19 +2679,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2735,19 +2699,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2755,19 +2719,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2805,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2825,19 +2789,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2845,19 +2809,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2865,19 +2829,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2885,19 +2849,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2905,19 +2869,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2925,19 +2889,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2945,19 +2909,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2965,19 +2929,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2985,19 +2949,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3035,19 +2999,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3055,19 +3019,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3075,19 +3039,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3095,19 +3059,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3115,19 +3079,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3135,19 +3099,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3155,19 +3119,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3175,19 +3139,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3198,16 +3162,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3215,19 +3179,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3265,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3285,19 +3249,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3305,19 +3269,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3325,19 +3289,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3345,19 +3309,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3365,19 +3329,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3385,19 +3349,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3405,19 +3369,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3425,19 +3389,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3445,19 +3409,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3495,19 +3459,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3515,19 +3479,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3535,19 +3499,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3555,19 +3519,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3575,19 +3539,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3595,19 +3559,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3615,19 +3579,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3635,19 +3599,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3658,16 +3622,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3675,19 +3639,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3725,19 +3689,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3745,19 +3709,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3765,19 +3729,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3785,19 +3749,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3805,19 +3769,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3825,19 +3789,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3845,19 +3809,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3865,19 +3829,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3885,19 +3849,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3905,19 +3869,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3955,19 +3919,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3975,19 +3939,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3995,19 +3959,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4015,19 +3979,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4035,19 +3999,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4055,19 +4019,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4075,19 +4039,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4095,19 +4059,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4115,19 +4079,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4135,19 +4099,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
